--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cp-Slc40a1.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.979053</v>
+        <v>3.323546</v>
       </c>
       <c r="H2">
-        <v>14.937159</v>
+        <v>9.970638000000001</v>
       </c>
       <c r="I2">
-        <v>0.0472442256101348</v>
+        <v>0.05491115868684463</v>
       </c>
       <c r="J2">
-        <v>0.05613577143209333</v>
+        <v>0.05617460731729474</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.041581</v>
+        <v>0.3231746666666667</v>
       </c>
       <c r="N2">
-        <v>0.124743</v>
+        <v>0.9695240000000001</v>
       </c>
       <c r="O2">
-        <v>0.002567303846182066</v>
+        <v>0.01551784106606065</v>
       </c>
       <c r="P2">
-        <v>0.002643553206088393</v>
+        <v>0.01834699745525213</v>
       </c>
       <c r="Q2">
-        <v>0.207034002793</v>
+        <v>1.074085870701333</v>
       </c>
       <c r="R2">
-        <v>1.863306025137</v>
+        <v>9.666772836312001</v>
       </c>
       <c r="S2">
-        <v>0.0001212902821187923</v>
+        <v>0.0008521026332556908</v>
       </c>
       <c r="T2">
-        <v>0.0001483978985455555</v>
+        <v>0.001030635377500194</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.979053</v>
+        <v>3.323546</v>
       </c>
       <c r="H3">
-        <v>14.937159</v>
+        <v>9.970638000000001</v>
       </c>
       <c r="I3">
-        <v>0.0472442256101348</v>
+        <v>0.05491115868684463</v>
       </c>
       <c r="J3">
-        <v>0.05613577143209333</v>
+        <v>0.05617460731729474</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.789469</v>
       </c>
       <c r="O3">
-        <v>0.2632167973700031</v>
+        <v>0.2047034908484057</v>
       </c>
       <c r="P3">
-        <v>0.2710343809201167</v>
+        <v>0.2420242873791943</v>
       </c>
       <c r="Q3">
-        <v>21.22648133095234</v>
+        <v>14.16879617902467</v>
       </c>
       <c r="R3">
-        <v>191.038331978571</v>
+        <v>127.519165611222</v>
       </c>
       <c r="S3">
-        <v>0.01243547375932556</v>
+        <v>0.01124050586972785</v>
       </c>
       <c r="T3">
-        <v>0.01521472405757059</v>
+        <v>0.01359561930477433</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.979053</v>
+        <v>3.323546</v>
       </c>
       <c r="H4">
-        <v>14.937159</v>
+        <v>9.970638000000001</v>
       </c>
       <c r="I4">
-        <v>0.0472442256101348</v>
+        <v>0.05491115868684463</v>
       </c>
       <c r="J4">
-        <v>0.05613577143209333</v>
+        <v>0.05617460731729474</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.354591</v>
+        <v>1.969873333333333</v>
       </c>
       <c r="N4">
-        <v>7.063773</v>
+        <v>5.909619999999999</v>
       </c>
       <c r="O4">
-        <v>0.1453777093019811</v>
+        <v>0.09458718290708983</v>
       </c>
       <c r="P4">
-        <v>0.1496954519390316</v>
+        <v>0.1118319743518542</v>
       </c>
       <c r="Q4">
-        <v>11.723633382323</v>
+        <v>6.546964637506667</v>
       </c>
       <c r="R4">
-        <v>105.512700440907</v>
+        <v>58.92268173756</v>
       </c>
       <c r="S4">
-        <v>0.006868257296947389</v>
+        <v>0.005193891810352807</v>
       </c>
       <c r="T4">
-        <v>0.008403269674473393</v>
+        <v>0.006282117244733186</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.979053</v>
+        <v>3.323546</v>
       </c>
       <c r="H5">
-        <v>14.937159</v>
+        <v>9.970638000000001</v>
       </c>
       <c r="I5">
-        <v>0.0472442256101348</v>
+        <v>0.05491115868684463</v>
       </c>
       <c r="J5">
-        <v>0.05613577143209333</v>
+        <v>0.05617460731729474</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.4014805</v>
+        <v>9.634278999999999</v>
       </c>
       <c r="N5">
-        <v>2.802961</v>
+        <v>19.268558</v>
       </c>
       <c r="O5">
-        <v>0.08653053745699152</v>
+        <v>0.4626080746059482</v>
       </c>
       <c r="P5">
-        <v>0.05940033940253743</v>
+        <v>0.3646327317244112</v>
       </c>
       <c r="Q5">
-        <v>6.9780456879665</v>
+        <v>32.019969433334</v>
       </c>
       <c r="R5">
-        <v>41.868274127799</v>
+        <v>192.119816600004</v>
       </c>
       <c r="S5">
-        <v>0.004088068233784327</v>
+        <v>0.02540234539450288</v>
       </c>
       <c r="T5">
-        <v>0.003334483875689609</v>
+        <v>0.02048310051965128</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.979053</v>
+        <v>3.323546</v>
       </c>
       <c r="H6">
-        <v>14.937159</v>
+        <v>9.970638000000001</v>
       </c>
       <c r="I6">
-        <v>0.0472442256101348</v>
+        <v>0.05491115868684463</v>
       </c>
       <c r="J6">
-        <v>0.05613577143209333</v>
+        <v>0.05617460731729474</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.13556</v>
+        <v>4.635523666666667</v>
       </c>
       <c r="N6">
-        <v>24.40668</v>
+        <v>13.906571</v>
       </c>
       <c r="O6">
-        <v>0.5023076520248423</v>
+        <v>0.2225834105724956</v>
       </c>
       <c r="P6">
-        <v>0.5172262745322259</v>
+        <v>0.2631640090892882</v>
       </c>
       <c r="Q6">
-        <v>40.50738442468</v>
+        <v>15.40637614025534</v>
       </c>
       <c r="R6">
-        <v>364.5664598221201</v>
+        <v>138.657385262298</v>
       </c>
       <c r="S6">
-        <v>0.02373113603795873</v>
+        <v>0.01222231297900539</v>
       </c>
       <c r="T6">
-        <v>0.02903489592581419</v>
+        <v>0.01478313487063575</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>123.558719</v>
       </c>
       <c r="I7">
-        <v>0.3907996156789419</v>
+        <v>0.6804732481664908</v>
       </c>
       <c r="J7">
-        <v>0.4643496134858207</v>
+        <v>0.6961302296255228</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.041581</v>
+        <v>0.3231746666666667</v>
       </c>
       <c r="N7">
-        <v>0.124743</v>
+        <v>0.9695240000000001</v>
       </c>
       <c r="O7">
-        <v>0.002567303846182066</v>
+        <v>0.01551784106606065</v>
       </c>
       <c r="P7">
-        <v>0.002643553206088393</v>
+        <v>0.01834699745525213</v>
       </c>
       <c r="Q7">
-        <v>1.712565031579667</v>
+        <v>13.31034927552844</v>
       </c>
       <c r="R7">
-        <v>15.413085284217</v>
+        <v>119.793143479756</v>
       </c>
       <c r="S7">
-        <v>0.001003301356419021</v>
+        <v>0.01055947571475365</v>
       </c>
       <c r="T7">
-        <v>0.001227532909476347</v>
+        <v>0.01277189955146355</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>123.558719</v>
       </c>
       <c r="I8">
-        <v>0.3907996156789419</v>
+        <v>0.6804732481664908</v>
       </c>
       <c r="J8">
-        <v>0.4643496134858207</v>
+        <v>0.6961302296255228</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>12.789469</v>
       </c>
       <c r="O8">
-        <v>0.2632167973700031</v>
+        <v>0.2047034908484057</v>
       </c>
       <c r="P8">
-        <v>0.2710343809201167</v>
+        <v>0.2420242873791943</v>
       </c>
       <c r="Q8">
         <v>175.5833784811346</v>
@@ -948,10 +948,10 @@
         <v>1580.250406330211</v>
       </c>
       <c r="S8">
-        <v>0.1028650232524392</v>
+        <v>0.1392952493286342</v>
       </c>
       <c r="T8">
-        <v>0.1258547100216248</v>
+        <v>0.1684804227482321</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>123.558719</v>
       </c>
       <c r="I9">
-        <v>0.3907996156789419</v>
+        <v>0.6804732481664908</v>
       </c>
       <c r="J9">
-        <v>0.4643496134858207</v>
+        <v>0.6961302296255228</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.354591</v>
+        <v>1.969873333333333</v>
       </c>
       <c r="N9">
-        <v>7.063773</v>
+        <v>5.909619999999999</v>
       </c>
       <c r="O9">
-        <v>0.1453777093019811</v>
+        <v>0.09458718290708983</v>
       </c>
       <c r="P9">
-        <v>0.1496954519390316</v>
+        <v>0.1118319743518542</v>
       </c>
       <c r="Q9">
-        <v>96.97674924297634</v>
+        <v>81.13167521964222</v>
       </c>
       <c r="R9">
-        <v>872.790743186787</v>
+        <v>730.1850769767799</v>
       </c>
       <c r="S9">
-        <v>0.05681355292349916</v>
+        <v>0.06436404758770539</v>
       </c>
       <c r="T9">
-        <v>0.06951102524847458</v>
+        <v>0.07784961798503183</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>123.558719</v>
       </c>
       <c r="I10">
-        <v>0.3907996156789419</v>
+        <v>0.6804732481664908</v>
       </c>
       <c r="J10">
-        <v>0.4643496134858207</v>
+        <v>0.6961302296255228</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.4014805</v>
+        <v>9.634278999999999</v>
       </c>
       <c r="N10">
-        <v>2.802961</v>
+        <v>19.268558</v>
       </c>
       <c r="O10">
-        <v>0.08653053745699152</v>
+        <v>0.4626080746059482</v>
       </c>
       <c r="P10">
-        <v>0.05940033940253743</v>
+        <v>0.3646327317244112</v>
       </c>
       <c r="Q10">
-        <v>57.72171176115983</v>
+        <v>396.7997239095336</v>
       </c>
       <c r="R10">
-        <v>346.330270566959</v>
+        <v>2380.798343457202</v>
       </c>
       <c r="S10">
-        <v>0.03381610078268457</v>
+        <v>0.3147924191551559</v>
       </c>
       <c r="T10">
-        <v>0.02758252464249482</v>
+        <v>0.253831867264296</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>123.558719</v>
       </c>
       <c r="I11">
-        <v>0.3907996156789419</v>
+        <v>0.6804732481664908</v>
       </c>
       <c r="J11">
-        <v>0.4643496134858207</v>
+        <v>0.6961302296255228</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.13556</v>
+        <v>4.635523666666667</v>
       </c>
       <c r="N11">
-        <v>24.40668</v>
+        <v>13.906571</v>
       </c>
       <c r="O11">
-        <v>0.5023076520248423</v>
+        <v>0.2225834105724956</v>
       </c>
       <c r="P11">
-        <v>0.5172262745322259</v>
+        <v>0.2631640090892882</v>
       </c>
       <c r="Q11">
-        <v>335.0731239825466</v>
+        <v>190.9197887158388</v>
       </c>
       <c r="R11">
-        <v>3015.65811584292</v>
+        <v>1718.278098442549</v>
       </c>
       <c r="S11">
-        <v>0.1963016373639001</v>
+        <v>0.1514620563802417</v>
       </c>
       <c r="T11">
-        <v>0.2401738206637501</v>
+        <v>0.1831964220764994</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.730062333333334</v>
+        <v>4.901883</v>
       </c>
       <c r="H12">
-        <v>17.190187</v>
+        <v>14.705649</v>
       </c>
       <c r="I12">
-        <v>0.05437025025363968</v>
+        <v>0.08098822019534135</v>
       </c>
       <c r="J12">
-        <v>0.06460294145004028</v>
+        <v>0.0828516748798791</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.041581</v>
+        <v>0.3231746666666667</v>
       </c>
       <c r="N12">
-        <v>0.124743</v>
+        <v>0.9695240000000001</v>
       </c>
       <c r="O12">
-        <v>0.002567303846182066</v>
+        <v>0.01551784106606065</v>
       </c>
       <c r="P12">
-        <v>0.002643553206088393</v>
+        <v>0.01834699745525213</v>
       </c>
       <c r="Q12">
-        <v>0.2382617218823334</v>
+        <v>1.584164404564</v>
       </c>
       <c r="R12">
-        <v>2.144355496941</v>
+        <v>14.257479641076</v>
       </c>
       <c r="S12">
-        <v>0.0001395849525940506</v>
+        <v>0.001256762329214431</v>
       </c>
       <c r="T12">
-        <v>0.0001707813129929947</v>
+        <v>0.001520079468184518</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.730062333333334</v>
+        <v>4.901883</v>
       </c>
       <c r="H13">
-        <v>17.190187</v>
+        <v>14.705649</v>
       </c>
       <c r="I13">
-        <v>0.05437025025363968</v>
+        <v>0.08098822019534135</v>
       </c>
       <c r="J13">
-        <v>0.06460294145004028</v>
+        <v>0.0828516748798791</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.789469</v>
       </c>
       <c r="O13">
-        <v>0.2632167973700031</v>
+        <v>0.2047034908484057</v>
       </c>
       <c r="P13">
-        <v>0.2710343809201167</v>
+        <v>0.2420242873791943</v>
       </c>
       <c r="Q13">
-        <v>24.42815152674478</v>
+        <v>20.897493556709</v>
       </c>
       <c r="R13">
-        <v>219.853363740703</v>
+        <v>188.077442010381</v>
       </c>
       <c r="S13">
-        <v>0.01431116314396864</v>
+        <v>0.01657857139158573</v>
       </c>
       <c r="T13">
-        <v>0.01750961824153021</v>
+        <v>0.02005211757097543</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.730062333333334</v>
+        <v>4.901883</v>
       </c>
       <c r="H14">
-        <v>17.190187</v>
+        <v>14.705649</v>
       </c>
       <c r="I14">
-        <v>0.05437025025363968</v>
+        <v>0.08098822019534135</v>
       </c>
       <c r="J14">
-        <v>0.06460294145004028</v>
+        <v>0.0828516748798791</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.354591</v>
+        <v>1.969873333333333</v>
       </c>
       <c r="N14">
-        <v>7.063773</v>
+        <v>5.909619999999999</v>
       </c>
       <c r="O14">
-        <v>0.1453777093019811</v>
+        <v>0.09458718290708983</v>
       </c>
       <c r="P14">
-        <v>0.1496954519390316</v>
+        <v>0.1118319743518542</v>
       </c>
       <c r="Q14">
-        <v>13.49195319950567</v>
+        <v>9.656088604819999</v>
       </c>
       <c r="R14">
-        <v>121.427578795551</v>
+        <v>86.90479744337999</v>
       </c>
       <c r="S14">
-        <v>0.007904222436049595</v>
+        <v>0.007660447596936419</v>
       </c>
       <c r="T14">
-        <v>0.009670766516954579</v>
+        <v>0.009265466380174801</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.730062333333334</v>
+        <v>4.901883</v>
       </c>
       <c r="H15">
-        <v>17.190187</v>
+        <v>14.705649</v>
       </c>
       <c r="I15">
-        <v>0.05437025025363968</v>
+        <v>0.08098822019534135</v>
       </c>
       <c r="J15">
-        <v>0.06460294145004028</v>
+        <v>0.0828516748798791</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.4014805</v>
+        <v>9.634278999999999</v>
       </c>
       <c r="N15">
-        <v>2.802961</v>
+        <v>19.268558</v>
       </c>
       <c r="O15">
-        <v>0.08653053745699152</v>
+        <v>0.4626080746059482</v>
       </c>
       <c r="P15">
-        <v>0.05940033940253743</v>
+        <v>0.3646327317244112</v>
       </c>
       <c r="Q15">
-        <v>8.030570623951167</v>
+        <v>47.22610844735699</v>
       </c>
       <c r="R15">
-        <v>48.183423743707</v>
+        <v>283.356650684142</v>
       </c>
       <c r="S15">
-        <v>0.004704686976118571</v>
+        <v>0.03746580461032943</v>
       </c>
       <c r="T15">
-        <v>0.003837436648534646</v>
+        <v>0.0302104325393931</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.730062333333334</v>
+        <v>4.901883</v>
       </c>
       <c r="H16">
-        <v>17.190187</v>
+        <v>14.705649</v>
       </c>
       <c r="I16">
-        <v>0.05437025025363968</v>
+        <v>0.08098822019534135</v>
       </c>
       <c r="J16">
-        <v>0.06460294145004028</v>
+        <v>0.0828516748798791</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.13556</v>
+        <v>4.635523666666667</v>
       </c>
       <c r="N16">
-        <v>24.40668</v>
+        <v>13.906571</v>
       </c>
       <c r="O16">
-        <v>0.5023076520248423</v>
+        <v>0.2225834105724956</v>
       </c>
       <c r="P16">
-        <v>0.5172262745322259</v>
+        <v>0.2631640090892882</v>
       </c>
       <c r="Q16">
-        <v>46.61726591657334</v>
+        <v>22.722794657731</v>
       </c>
       <c r="R16">
-        <v>419.5553932491601</v>
+        <v>204.505151919579</v>
       </c>
       <c r="S16">
-        <v>0.02731059274490883</v>
+        <v>0.01802663426727534</v>
       </c>
       <c r="T16">
-        <v>0.03341433873002785</v>
+        <v>0.02180357892115125</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.079138</v>
+        <v>4.083945</v>
       </c>
       <c r="H17">
-        <v>100.158276</v>
+        <v>8.16789</v>
       </c>
       <c r="I17">
-        <v>0.4751807410029728</v>
+        <v>0.06747436381604036</v>
       </c>
       <c r="J17">
-        <v>0.3764077284421033</v>
+        <v>0.04601791915029495</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.041581</v>
+        <v>0.3231746666666667</v>
       </c>
       <c r="N17">
-        <v>0.124743</v>
+        <v>0.9695240000000001</v>
       </c>
       <c r="O17">
-        <v>0.002567303846182066</v>
+        <v>0.01551784106606065</v>
       </c>
       <c r="P17">
-        <v>0.002643553206088393</v>
+        <v>0.01834699745525213</v>
       </c>
       <c r="Q17">
-        <v>2.082340637178</v>
+        <v>1.31982756406</v>
       </c>
       <c r="R17">
-        <v>12.494043823068</v>
+        <v>7.918965384360001</v>
       </c>
       <c r="S17">
-        <v>0.001219933344008576</v>
+        <v>0.001047056453730868</v>
       </c>
       <c r="T17">
-        <v>0.0009950538573195713</v>
+        <v>0.0008442906455464595</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50.079138</v>
+        <v>4.083945</v>
       </c>
       <c r="H18">
-        <v>100.158276</v>
+        <v>8.16789</v>
       </c>
       <c r="I18">
-        <v>0.4751807410029728</v>
+        <v>0.06747436381604036</v>
       </c>
       <c r="J18">
-        <v>0.3764077284421033</v>
+        <v>0.04601791915029495</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>12.789469</v>
       </c>
       <c r="O18">
-        <v>0.2632167973700031</v>
+        <v>0.2047034908484057</v>
       </c>
       <c r="P18">
-        <v>0.2710343809201167</v>
+        <v>0.2420242873791943</v>
       </c>
       <c r="Q18">
-        <v>213.495194332574</v>
+        <v>17.410495991735</v>
       </c>
       <c r="R18">
-        <v>1280.971165995444</v>
+        <v>104.46297595041</v>
       </c>
       <c r="S18">
-        <v>0.1250755528187074</v>
+        <v>0.01381223781591881</v>
       </c>
       <c r="T18">
-        <v>0.1020194356518529</v>
+        <v>0.01113745408902351</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>50.079138</v>
+        <v>4.083945</v>
       </c>
       <c r="H19">
-        <v>100.158276</v>
+        <v>8.16789</v>
       </c>
       <c r="I19">
-        <v>0.4751807410029728</v>
+        <v>0.06747436381604036</v>
       </c>
       <c r="J19">
-        <v>0.3764077284421033</v>
+        <v>0.04601791915029495</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.354591</v>
+        <v>1.969873333333333</v>
       </c>
       <c r="N19">
-        <v>7.063773</v>
+        <v>5.909619999999999</v>
       </c>
       <c r="O19">
-        <v>0.1453777093019811</v>
+        <v>0.09458718290708983</v>
       </c>
       <c r="P19">
-        <v>0.1496954519390316</v>
+        <v>0.1118319743518542</v>
       </c>
       <c r="Q19">
-        <v>117.915887622558</v>
+        <v>8.0448543503</v>
       </c>
       <c r="R19">
-        <v>707.495325735348</v>
+        <v>48.2691261018</v>
       </c>
       <c r="S19">
-        <v>0.06908068763143016</v>
+        <v>0.006382209991807332</v>
       </c>
       <c r="T19">
-        <v>0.05634652502248495</v>
+        <v>0.005146274754141484</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>50.079138</v>
+        <v>4.083945</v>
       </c>
       <c r="H20">
-        <v>100.158276</v>
+        <v>8.16789</v>
       </c>
       <c r="I20">
-        <v>0.4751807410029728</v>
+        <v>0.06747436381604036</v>
       </c>
       <c r="J20">
-        <v>0.3764077284421033</v>
+        <v>0.04601791915029495</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.4014805</v>
+        <v>9.634278999999999</v>
       </c>
       <c r="N20">
-        <v>2.802961</v>
+        <v>19.268558</v>
       </c>
       <c r="O20">
-        <v>0.08653053745699152</v>
+        <v>0.4626080746059482</v>
       </c>
       <c r="P20">
-        <v>0.05940033940253743</v>
+        <v>0.3646327317244112</v>
       </c>
       <c r="Q20">
-        <v>70.18493536380899</v>
+        <v>39.345865550655</v>
       </c>
       <c r="R20">
-        <v>280.739741455236</v>
+        <v>157.38346220262</v>
       </c>
       <c r="S20">
-        <v>0.04111764490819872</v>
+        <v>0.03121418553019968</v>
       </c>
       <c r="T20">
-        <v>0.02235874682319908</v>
+        <v>0.01677963956804514</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>50.079138</v>
+        <v>4.083945</v>
       </c>
       <c r="H21">
-        <v>100.158276</v>
+        <v>8.16789</v>
       </c>
       <c r="I21">
-        <v>0.4751807410029728</v>
+        <v>0.06747436381604036</v>
       </c>
       <c r="J21">
-        <v>0.3764077284421033</v>
+        <v>0.04601791915029495</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.13556</v>
+        <v>4.635523666666667</v>
       </c>
       <c r="N21">
-        <v>24.40668</v>
+        <v>13.906571</v>
       </c>
       <c r="O21">
-        <v>0.5023076520248423</v>
+        <v>0.2225834105724956</v>
       </c>
       <c r="P21">
-        <v>0.5172262745322259</v>
+        <v>0.2631640090892882</v>
       </c>
       <c r="Q21">
-        <v>407.42183194728</v>
+        <v>18.931223700865</v>
       </c>
       <c r="R21">
-        <v>2444.53099168368</v>
+        <v>113.58734220519</v>
       </c>
       <c r="S21">
-        <v>0.2386869223006279</v>
+        <v>0.01501867402438365</v>
       </c>
       <c r="T21">
-        <v>0.1946879670872469</v>
+        <v>0.01211026009353835</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.415169666666667</v>
+        <v>7.030262666666666</v>
       </c>
       <c r="H22">
-        <v>10.245509</v>
+        <v>21.090788</v>
       </c>
       <c r="I22">
-        <v>0.03240516745431086</v>
+        <v>0.1161530091352829</v>
       </c>
       <c r="J22">
-        <v>0.03850394518994242</v>
+        <v>0.1188255690270083</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.041581</v>
+        <v>0.3231746666666667</v>
       </c>
       <c r="N22">
-        <v>0.124743</v>
+        <v>0.9695240000000001</v>
       </c>
       <c r="O22">
-        <v>0.002567303846182066</v>
+        <v>0.01551784106606065</v>
       </c>
       <c r="P22">
-        <v>0.002643553206088393</v>
+        <v>0.01834699745525213</v>
       </c>
       <c r="Q22">
-        <v>0.1420061699096667</v>
+        <v>2.272002793879111</v>
       </c>
       <c r="R22">
-        <v>1.278055529187</v>
+        <v>20.448025144912</v>
       </c>
       <c r="S22">
-        <v>8.319391104162617E-05</v>
+        <v>0.001802443935106011</v>
       </c>
       <c r="T22">
-        <v>0.000101787227753924</v>
+        <v>0.002180092412557407</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.415169666666667</v>
+        <v>7.030262666666666</v>
       </c>
       <c r="H23">
-        <v>10.245509</v>
+        <v>21.090788</v>
       </c>
       <c r="I23">
-        <v>0.03240516745431086</v>
+        <v>0.1161530091352829</v>
       </c>
       <c r="J23">
-        <v>0.03850394518994242</v>
+        <v>0.1188255690270083</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>12.789469</v>
       </c>
       <c r="O23">
-        <v>0.2632167973700031</v>
+        <v>0.2047034908484057</v>
       </c>
       <c r="P23">
-        <v>0.2710343809201167</v>
+        <v>0.2420242873791943</v>
       </c>
       <c r="Q23">
-        <v>14.55940219385789</v>
+        <v>29.97110881239689</v>
       </c>
       <c r="R23">
-        <v>131.034619744721</v>
+        <v>269.739979311572</v>
       </c>
       <c r="S23">
-        <v>0.008529584395562362</v>
+        <v>0.02377692644253916</v>
       </c>
       <c r="T23">
-        <v>0.01043589294753815</v>
+        <v>0.02875867366618895</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.415169666666667</v>
+        <v>7.030262666666666</v>
       </c>
       <c r="H24">
-        <v>10.245509</v>
+        <v>21.090788</v>
       </c>
       <c r="I24">
-        <v>0.03240516745431086</v>
+        <v>0.1161530091352829</v>
       </c>
       <c r="J24">
-        <v>0.03850394518994242</v>
+        <v>0.1188255690270083</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.354591</v>
+        <v>1.969873333333333</v>
       </c>
       <c r="N24">
-        <v>7.063773</v>
+        <v>5.909619999999999</v>
       </c>
       <c r="O24">
-        <v>0.1453777093019811</v>
+        <v>0.09458718290708983</v>
       </c>
       <c r="P24">
-        <v>0.1496954519390316</v>
+        <v>0.1118319743518542</v>
       </c>
       <c r="Q24">
-        <v>8.041327760606334</v>
+        <v>13.84872695339555</v>
       </c>
       <c r="R24">
-        <v>72.37194984545701</v>
+        <v>124.63854258056</v>
       </c>
       <c r="S24">
-        <v>0.004710989014054824</v>
+        <v>0.01098658592028788</v>
       </c>
       <c r="T24">
-        <v>0.005763865476644134</v>
+        <v>0.01328849798777287</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.415169666666667</v>
+        <v>7.030262666666666</v>
       </c>
       <c r="H25">
-        <v>10.245509</v>
+        <v>21.090788</v>
       </c>
       <c r="I25">
-        <v>0.03240516745431086</v>
+        <v>0.1161530091352829</v>
       </c>
       <c r="J25">
-        <v>0.03850394518994242</v>
+        <v>0.1188255690270083</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.4014805</v>
+        <v>9.634278999999999</v>
       </c>
       <c r="N25">
-        <v>2.802961</v>
+        <v>19.268558</v>
       </c>
       <c r="O25">
-        <v>0.08653053745699152</v>
+        <v>0.4626080746059482</v>
       </c>
       <c r="P25">
-        <v>0.05940033940253743</v>
+        <v>0.3646327317244112</v>
       </c>
       <c r="Q25">
-        <v>4.786293692024834</v>
+        <v>67.73151197395066</v>
       </c>
       <c r="R25">
-        <v>28.717762152149</v>
+        <v>406.389071843704</v>
       </c>
       <c r="S25">
-        <v>0.002804036556205328</v>
+        <v>0.05373331991576031</v>
       </c>
       <c r="T25">
-        <v>0.002287147412619278</v>
+        <v>0.04332769183302562</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.415169666666667</v>
+        <v>7.030262666666666</v>
       </c>
       <c r="H26">
-        <v>10.245509</v>
+        <v>21.090788</v>
       </c>
       <c r="I26">
-        <v>0.03240516745431086</v>
+        <v>0.1161530091352829</v>
       </c>
       <c r="J26">
-        <v>0.03850394518994242</v>
+        <v>0.1188255690270083</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.13556</v>
+        <v>4.635523666666667</v>
       </c>
       <c r="N26">
-        <v>24.40668</v>
+        <v>13.906571</v>
       </c>
       <c r="O26">
-        <v>0.5023076520248423</v>
+        <v>0.2225834105724956</v>
       </c>
       <c r="P26">
-        <v>0.5172262745322259</v>
+        <v>0.2631640090892882</v>
       </c>
       <c r="Q26">
-        <v>27.78431773334667</v>
+        <v>32.58894897421644</v>
       </c>
       <c r="R26">
-        <v>250.05885960012</v>
+        <v>293.300540767948</v>
       </c>
       <c r="S26">
-        <v>0.01627736357744672</v>
+        <v>0.02585373292158949</v>
       </c>
       <c r="T26">
-        <v>0.01991525212538694</v>
+        <v>0.03127061312746345</v>
       </c>
     </row>
   </sheetData>
